--- a/Code/Results/Cases/Case_2_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_102/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.481008983277832</v>
+        <v>0.8100456314743383</v>
       </c>
       <c r="C2">
-        <v>0.6354168357190133</v>
+        <v>0.2139355548678168</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.193626791756401</v>
+        <v>0.1180885000064151</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.000779924557197241</v>
+        <v>0.002380715531325821</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08218974301035864</v>
+        <v>0.282251155278157</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.97823821460441</v>
+        <v>0.3415018856951235</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6553533020444604</v>
+        <v>1.237202940415017</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.164537551025546</v>
+        <v>0.7079256111462655</v>
       </c>
       <c r="C3">
-        <v>0.5589224351664086</v>
+        <v>0.1889873452860229</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1693075066345955</v>
+        <v>0.1134358236564665</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007840989962869038</v>
+        <v>0.002383361759907004</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.09345493940656624</v>
+        <v>0.2904908242850794</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8477541359155012</v>
+        <v>0.3029369837983751</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6381154619802203</v>
+        <v>1.256615068974668</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.970330972993764</v>
+        <v>0.6450042764207069</v>
       </c>
       <c r="C4">
-        <v>0.5119767242724151</v>
+        <v>0.1735931867904981</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1549174017945631</v>
+        <v>0.1107153921229767</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.000786737828047418</v>
+        <v>0.00238507146575101</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1012076997790841</v>
+        <v>0.2958889709655157</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7681262985704933</v>
+        <v>0.2792820313245201</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6316001729975937</v>
+        <v>1.270069308549935</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.891190068618897</v>
+        <v>0.6193097748508478</v>
       </c>
       <c r="C5">
-        <v>0.4928444377561902</v>
+        <v>0.1673012155555966</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1491762622542296</v>
+        <v>0.1096407594327715</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007878326946908967</v>
+        <v>0.002385789601615425</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1045660466699063</v>
+        <v>0.2981737049354241</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7357782832750175</v>
+        <v>0.2696486179753208</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.629902117076</v>
+        <v>1.275936454532555</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.87804801213062</v>
+        <v>0.6150400352093754</v>
       </c>
       <c r="C6">
-        <v>0.4896672465137897</v>
+        <v>0.1662553178174164</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1482300016940101</v>
+        <v>0.1094643596679283</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007880156891259305</v>
+        <v>0.002385910142949602</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.105135403907834</v>
+        <v>0.2985582053158176</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7304123969220626</v>
+        <v>0.2680493735698661</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6296760900772966</v>
+        <v>1.276933862092889</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.969263686359596</v>
+        <v>0.6446579660883458</v>
       </c>
       <c r="C7">
-        <v>0.5117187147513107</v>
+        <v>0.173508406423025</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1548394940089679</v>
+        <v>0.1107007621445248</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007867525141164336</v>
+        <v>0.002385081064079973</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1012522000439784</v>
+        <v>0.2959194401291541</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7676896613843098</v>
+        <v>0.2791520865844532</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6315734824257646</v>
+        <v>1.270146880477583</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.371850001597352</v>
+        <v>0.7748810616644164</v>
       </c>
       <c r="C8">
-        <v>0.6090325030396571</v>
+        <v>0.2053493566115776</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1851206878628275</v>
+        <v>0.116455769791564</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007813484901057488</v>
+        <v>0.002381610366809352</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.08589359389250362</v>
+        <v>0.2850216706646904</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9331317503320733</v>
+        <v>0.3281997760878212</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6485242285075969</v>
+        <v>1.243576678678536</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.163555379983961</v>
+        <v>1.028451974918596</v>
       </c>
       <c r="C9">
-        <v>0.800397964584846</v>
+        <v>0.2671752339249451</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.249453896449225</v>
+        <v>0.1288380069051271</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.000771328547291783</v>
+        <v>0.002375475102967428</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0629413954147271</v>
+        <v>0.2663532087977849</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.262545525500016</v>
+        <v>0.4245726733431212</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7172287692914665</v>
+        <v>1.20372435167404</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.748720177842699</v>
+        <v>1.213598073173443</v>
       </c>
       <c r="C10">
-        <v>0.9418751491373598</v>
+        <v>0.3122123748455294</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3007248930339941</v>
+        <v>0.1386255262341933</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.000764283811727335</v>
+        <v>0.002371372260207526</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.05123927788703675</v>
+        <v>0.2543014884139243</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.509275614000117</v>
+        <v>0.4955011030209562</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7940707227465822</v>
+        <v>1.18201243765391</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.016213608249132</v>
+        <v>1.297564813878751</v>
       </c>
       <c r="C11">
-        <v>1.006565877827057</v>
+        <v>0.3326148552239943</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3251625184290674</v>
+        <v>0.1432327538483378</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007611393597969872</v>
+        <v>0.002369592764406604</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.04722778483823475</v>
+        <v>0.2491837447280449</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.62295375377785</v>
+        <v>0.5277971025173542</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8359036644507114</v>
+        <v>1.173799517412888</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.117740451879286</v>
+        <v>1.329322571574721</v>
       </c>
       <c r="C12">
-        <v>1.031122764775176</v>
+        <v>0.3403282240847716</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3345991439199238</v>
+        <v>0.1450000193504053</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.000759956543674889</v>
+        <v>0.002368931345714801</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.04591491240884693</v>
+        <v>0.2472985309681306</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.66624518785072</v>
+        <v>0.5400311233909889</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8528389514057437</v>
+        <v>1.170930490999552</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.095863692289981</v>
+        <v>1.322484714104235</v>
       </c>
       <c r="C13">
-        <v>1.0258311288882</v>
+        <v>0.3386675785760076</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.332558294882709</v>
+        <v>0.1446183961151988</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007602109444959102</v>
+        <v>0.002369073241919747</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.04618819716282374</v>
+        <v>0.2477021935150248</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.656910124497642</v>
+        <v>0.5373961221418853</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8491412037236614</v>
+        <v>1.171537639448005</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.024561336211434</v>
+        <v>1.300178327181584</v>
       </c>
       <c r="C14">
-        <v>1.008584913107683</v>
+        <v>0.333249693470492</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3259350789521704</v>
+        <v>0.1433776927698602</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007610418945456776</v>
+        <v>0.002369538100146131</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.04711553582293071</v>
+        <v>0.2490275876883423</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.626510251719026</v>
+        <v>0.5288035187973037</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8372743793894131</v>
+        <v>1.173558640271921</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.980918353315246</v>
+        <v>1.286509942470218</v>
       </c>
       <c r="C15">
-        <v>0.9980292912663913</v>
+        <v>0.3299294297726476</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3219026539275589</v>
+        <v>0.1426206806278358</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.000761551883711037</v>
+        <v>0.002369824457302225</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.04771095595133978</v>
+        <v>0.249846311182969</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.607922384472303</v>
+        <v>0.5235408478016126</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8301513611294524</v>
+        <v>1.174828002682005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.731268837243022</v>
+        <v>1.208105333489073</v>
       </c>
       <c r="C16">
-        <v>0.9376551530427832</v>
+        <v>0.3108772802558804</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2991521234369117</v>
+        <v>0.1383275780838176</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007644904590974279</v>
+        <v>0.002371490298397592</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.05152930346669216</v>
+        <v>0.2546433107268076</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.501878529579784</v>
+        <v>0.4933910819755027</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7914840110436216</v>
+        <v>1.182582804175965</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.578481142871851</v>
+        <v>1.159939605668569</v>
       </c>
       <c r="C17">
-        <v>0.9007109148436427</v>
+        <v>0.2991673362128608</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2854960527762671</v>
+        <v>0.1357337998102963</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007663080980557492</v>
+        <v>0.002372534454422944</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.05421976915159554</v>
+        <v>0.2576797430662356</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.437217981131781</v>
+        <v>0.4749028437014431</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7695962676913695</v>
+        <v>1.187767548663899</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.490720971694202</v>
+        <v>1.132211846227904</v>
       </c>
       <c r="C18">
-        <v>0.8794920253966154</v>
+        <v>0.2924240937570062</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2777448511638525</v>
+        <v>0.1342564804776814</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007673592731702872</v>
+        <v>0.00237314320903102</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0558895989717243</v>
+        <v>0.2594605210075756</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.400160013691547</v>
+        <v>0.4642717576357285</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.757647523704847</v>
+        <v>1.190906189539959</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.461026033806604</v>
+        <v>1.122819613453714</v>
       </c>
       <c r="C19">
-        <v>0.8723125534674523</v>
+        <v>0.2901395862096194</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.27513754019391</v>
+        <v>0.1337587746416418</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007677161866055142</v>
+        <v>0.002373350730271507</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0564754762745352</v>
+        <v>0.2600693432527041</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.387634605468932</v>
+        <v>0.4606727497487384</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7537088330733184</v>
+        <v>1.1919957071173</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.594732989297029</v>
+        <v>1.165069436568842</v>
       </c>
       <c r="C20">
-        <v>0.9046404552166791</v>
+        <v>0.3004147095823839</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.286938906931077</v>
+        <v>0.1360084032388897</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007661140207667616</v>
+        <v>0.002372422455593836</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.05392057973232411</v>
+        <v>0.2573529571067237</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.444087177548923</v>
+        <v>0.4768706532334193</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7718592322098772</v>
+        <v>1.187199412521622</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.045497857633904</v>
+        <v>1.306731315032664</v>
       </c>
       <c r="C21">
-        <v>1.013648815959783</v>
+        <v>0.3348414027081219</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3278753320233818</v>
+        <v>0.1437415010925207</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.000760797615671327</v>
+        <v>0.002369401223004484</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.04683741074555314</v>
+        <v>0.2486368526487563</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.635432497079762</v>
+        <v>0.5313272609905226</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8407293776586755</v>
+        <v>1.172958467924587</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.341480719300989</v>
+        <v>1.399089656457647</v>
       </c>
       <c r="C22">
-        <v>1.085247805191955</v>
+        <v>0.3572675836865642</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3557061792492675</v>
+        <v>0.148927466551946</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007573688096021335</v>
+        <v>0.002367499141820099</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0434192393267363</v>
+        <v>0.2432480803641361</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.761929650954812</v>
+        <v>0.5669423818644788</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8921725582863758</v>
+        <v>1.165056897076425</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.183366288361412</v>
+        <v>1.349817479332955</v>
       </c>
       <c r="C23">
-        <v>1.046997197046153</v>
+        <v>0.3453051673787968</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3407458374400889</v>
+        <v>0.1461474331197223</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007591949012467858</v>
+        <v>0.002368507707039308</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.04512657446528578</v>
+        <v>0.2460959056647578</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.694270641429043</v>
+        <v>0.5479317144278895</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8640906174646261</v>
+        <v>1.169144912261459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.587385285305402</v>
+        <v>1.162750354029356</v>
       </c>
       <c r="C24">
-        <v>0.9028638459907086</v>
+        <v>0.299850806443942</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2862862832074455</v>
+        <v>0.1358842118270687</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007662017437601778</v>
+        <v>0.002372473063977705</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.05405546131936489</v>
+        <v>0.2575005877512648</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.440981254531664</v>
+        <v>0.4759810126192718</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7708341764942901</v>
+        <v>1.187455775268361</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.948929268042207</v>
+        <v>0.9600526307479527</v>
       </c>
       <c r="C25">
-        <v>0.7485170193122883</v>
+        <v>0.2505166946359623</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.231423226643912</v>
+        <v>0.1253686339503446</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007739808692106553</v>
+        <v>0.002377063478087167</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0683051648709796</v>
+        <v>0.271112518101738</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.172732821581342</v>
+        <v>0.3984801369161488</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6943776401281241</v>
+        <v>1.213183624856427</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_102/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8100456314743383</v>
+        <v>2.481008983277945</v>
       </c>
       <c r="C2">
-        <v>0.2139355548678168</v>
+        <v>0.6354168357190133</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1180885000064151</v>
+        <v>0.1936267917564081</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002380715531325821</v>
+        <v>0.0007799245571382598</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.282251155278157</v>
+        <v>0.08218974301035331</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3415018856951235</v>
+        <v>0.97823821460441</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.237202940415017</v>
+        <v>0.6553533020444604</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7079256111462655</v>
+        <v>2.164537551025546</v>
       </c>
       <c r="C3">
-        <v>0.1889873452860229</v>
+        <v>0.5589224351660675</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1134358236564665</v>
+        <v>0.1693075066346097</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002383361759907004</v>
+        <v>0.0007840989963570355</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2904908242850794</v>
+        <v>0.09345493940656446</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3029369837983751</v>
+        <v>0.8477541359155012</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.256615068974668</v>
+        <v>0.6381154619802061</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6450042764207069</v>
+        <v>1.970330972993764</v>
       </c>
       <c r="C4">
-        <v>0.1735931867904981</v>
+        <v>0.5119767242723867</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1107153921229767</v>
+        <v>0.1549174017945276</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.00238507146575101</v>
+        <v>0.0007867378280601859</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2958889709655157</v>
+        <v>0.1012076997790823</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2792820313245201</v>
+        <v>0.7681262985704862</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.270069308549935</v>
+        <v>0.6316001729975937</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6193097748508478</v>
+        <v>1.891190068618641</v>
       </c>
       <c r="C5">
-        <v>0.1673012155555966</v>
+        <v>0.492844437756105</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1096407594327715</v>
+        <v>0.1491762622542439</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002385789601615425</v>
+        <v>0.0007878326947037057</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2981737049354241</v>
+        <v>0.1045660466699081</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2696486179753208</v>
+        <v>0.7357782832750104</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.275936454532555</v>
+        <v>0.6299021170759431</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6150400352093754</v>
+        <v>1.878048012130648</v>
       </c>
       <c r="C6">
-        <v>0.1662553178174164</v>
+        <v>0.4896672465135339</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1094643596679283</v>
+        <v>0.148230001694003</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002385910142949602</v>
+        <v>0.0007880156891393086</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2985582053158176</v>
+        <v>0.1051354039078367</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2680493735698661</v>
+        <v>0.7304123969220484</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.276933862092889</v>
+        <v>0.6296760900773819</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6446579660883458</v>
+        <v>1.96926368635954</v>
       </c>
       <c r="C7">
-        <v>0.173508406423025</v>
+        <v>0.5117187147513675</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1107007621445248</v>
+        <v>0.1548394940089679</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002385081064079973</v>
+        <v>0.0007867525141736154</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2959194401291541</v>
+        <v>0.1012522000439819</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2791520865844532</v>
+        <v>0.7676896613842956</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.270146880477583</v>
+        <v>0.6315734824257788</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7748810616644164</v>
+        <v>2.371850001597352</v>
       </c>
       <c r="C8">
-        <v>0.2053493566115776</v>
+        <v>0.6090325030394297</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.116455769791564</v>
+        <v>0.1851206878628133</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002381610366809352</v>
+        <v>0.0007813484900341325</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2850216706646904</v>
+        <v>0.08589359389249651</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3281997760878212</v>
+        <v>0.9331317503320591</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.243576678678536</v>
+        <v>0.6485242285076538</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.028451974918596</v>
+        <v>3.163555379983961</v>
       </c>
       <c r="C9">
-        <v>0.2671752339249451</v>
+        <v>0.800397964584846</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1288380069051271</v>
+        <v>0.2494538964491895</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002375475102967428</v>
+        <v>0.0007713285472329901</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2663532087977849</v>
+        <v>0.06294139541474486</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4245726733431212</v>
+        <v>1.262545525499988</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.20372435167404</v>
+        <v>0.7172287692914381</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.213598073173443</v>
+        <v>3.748720177842529</v>
       </c>
       <c r="C10">
-        <v>0.3122123748455294</v>
+        <v>0.9418751491370756</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1386255262341933</v>
+        <v>0.3007248930339941</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002371372260207526</v>
+        <v>0.0007642838117425388</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2543014884139243</v>
+        <v>0.05123927788703675</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4955011030209562</v>
+        <v>1.509275614000074</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.18201243765391</v>
+        <v>0.7940707227466106</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.297564813878751</v>
+        <v>4.016213608249018</v>
       </c>
       <c r="C11">
-        <v>0.3326148552239943</v>
+        <v>1.006565877827285</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1432327538483378</v>
+        <v>0.3251625184290603</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002369592764406604</v>
+        <v>0.0007611393597226671</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2491837447280449</v>
+        <v>0.04722778483823298</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5277971025173542</v>
+        <v>1.622953753777878</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.173799517412888</v>
+        <v>0.8359036644507114</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.329322571574721</v>
+        <v>4.117740451879115</v>
       </c>
       <c r="C12">
-        <v>0.3403282240847716</v>
+        <v>1.031122764775375</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1450000193504053</v>
+        <v>0.3345991439199238</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002368931345714801</v>
+        <v>0.0007599565436557248</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2472985309681306</v>
+        <v>0.04591491240884693</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5400311233909889</v>
+        <v>1.666245187850691</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.170930490999552</v>
+        <v>0.8528389514056869</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.322484714104235</v>
+        <v>4.095863692290095</v>
       </c>
       <c r="C13">
-        <v>0.3386675785760076</v>
+        <v>1.025831128887972</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1446183961151988</v>
+        <v>0.3325582948826877</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002369073241919747</v>
+        <v>0.0007602109444955762</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2477021935150248</v>
+        <v>0.04618819716282374</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5373961221418853</v>
+        <v>1.656910124497642</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.171537639448005</v>
+        <v>0.8491412037236898</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.300178327181584</v>
+        <v>4.024561336211434</v>
       </c>
       <c r="C14">
-        <v>0.333249693470492</v>
+        <v>1.008584913107626</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1433776927698602</v>
+        <v>0.3259350789521136</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002369538100146131</v>
+        <v>0.0007610418945438765</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2490275876883423</v>
+        <v>0.0471155358229165</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5288035187973037</v>
+        <v>1.62651025171904</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.173558640271921</v>
+        <v>0.8372743793894131</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.286509942470218</v>
+        <v>3.980918353315474</v>
       </c>
       <c r="C15">
-        <v>0.3299294297726476</v>
+        <v>0.9980292912663629</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1426206806278358</v>
+        <v>0.3219026539275305</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002369824457302225</v>
+        <v>0.0007615518836916412</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.249846311182969</v>
+        <v>0.04771095595133623</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5235408478016126</v>
+        <v>1.607922384472346</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.174828002682005</v>
+        <v>0.8301513611295377</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.208105333489073</v>
+        <v>3.731268837243022</v>
       </c>
       <c r="C16">
-        <v>0.3108772802558804</v>
+        <v>0.9376551530427548</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1383275780838176</v>
+        <v>0.2991521234369117</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002371490298397592</v>
+        <v>0.0007644904590773287</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2546433107268076</v>
+        <v>0.0515293034666886</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4933910819755027</v>
+        <v>1.501878529579812</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.182582804175965</v>
+        <v>0.7914840110436359</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.159939605668569</v>
+        <v>3.578481142872022</v>
       </c>
       <c r="C17">
-        <v>0.2991673362128608</v>
+        <v>0.9007109148436712</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1357337998102963</v>
+        <v>0.28549605277626</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002372534454422944</v>
+        <v>0.0007663080980540698</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2576797430662356</v>
+        <v>0.05421976915159199</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4749028437014431</v>
+        <v>1.437217981131795</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.187767548663899</v>
+        <v>0.7695962676914405</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.132211846227904</v>
+        <v>3.490720971693975</v>
       </c>
       <c r="C18">
-        <v>0.2924240937570062</v>
+        <v>0.8794920253963312</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1342564804776814</v>
+        <v>0.2777448511638596</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.00237314320903102</v>
+        <v>0.0007673592731697328</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2594605210075756</v>
+        <v>0.0558895989717243</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4642717576357285</v>
+        <v>1.400160013691519</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.190906189539959</v>
+        <v>0.757647523704847</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.122819613453714</v>
+        <v>3.461026033806604</v>
       </c>
       <c r="C19">
-        <v>0.2901395862096194</v>
+        <v>0.8723125534676797</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1337587746416418</v>
+        <v>0.2751375401939029</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002373350730271507</v>
+        <v>0.0007677161866611593</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2600693432527041</v>
+        <v>0.05647547627453697</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4606727497487384</v>
+        <v>1.387634605468932</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.1919957071173</v>
+        <v>0.7537088330733184</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.165069436568842</v>
+        <v>3.594732989296631</v>
       </c>
       <c r="C20">
-        <v>0.3004147095823839</v>
+        <v>0.9046404552165086</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1360084032388897</v>
+        <v>0.2869389069310699</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002372422455593836</v>
+        <v>0.0007661140207671097</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2573529571067237</v>
+        <v>0.05392057973232234</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4768706532334193</v>
+        <v>1.444087177548923</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.187199412521622</v>
+        <v>0.7718592322098203</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.306731315032664</v>
+        <v>4.045497857633677</v>
       </c>
       <c r="C21">
-        <v>0.3348414027081219</v>
+        <v>1.013648815959471</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1437415010925207</v>
+        <v>0.3278753320234031</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002369401223004484</v>
+        <v>0.0007607976156723262</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2486368526487563</v>
+        <v>0.04683741074555492</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5313272609905226</v>
+        <v>1.635432497079776</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.172958467924587</v>
+        <v>0.8407293776586755</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.399089656457647</v>
+        <v>4.341480719300989</v>
       </c>
       <c r="C22">
-        <v>0.3572675836865642</v>
+        <v>1.085247805192097</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.148927466551946</v>
+        <v>0.3557061792492817</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002367499141820099</v>
+        <v>0.0007573688095455222</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2432480803641361</v>
+        <v>0.04341923932673453</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5669423818644788</v>
+        <v>1.761929650954798</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.165056897076425</v>
+        <v>0.8921725582864042</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.349817479332955</v>
+        <v>4.183366288361242</v>
       </c>
       <c r="C23">
-        <v>0.3453051673787968</v>
+        <v>1.046997197046068</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1461474331197223</v>
+        <v>0.3407458374400747</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002368507707039308</v>
+        <v>0.0007591949012856203</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2460959056647578</v>
+        <v>0.0451265744652698</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5479317144278895</v>
+        <v>1.694270641429043</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.169144912261459</v>
+        <v>0.8640906174647114</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.162750354029356</v>
+        <v>3.587385285305515</v>
       </c>
       <c r="C24">
-        <v>0.299850806443942</v>
+        <v>0.902863845990737</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1358842118270687</v>
+        <v>0.2862862832074455</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002372473063977705</v>
+        <v>0.0007662017437240799</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2575005877512648</v>
+        <v>0.05405546131936667</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4759810126192718</v>
+        <v>1.440981254531664</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.187455775268361</v>
+        <v>0.7708341764943469</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9600526307479527</v>
+        <v>2.948929268042093</v>
       </c>
       <c r="C25">
-        <v>0.2505166946359623</v>
+        <v>0.7485170193121746</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1253686339503446</v>
+        <v>0.231423226643912</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002377063478087167</v>
+        <v>0.000773980869194224</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.271112518101738</v>
+        <v>0.06830516487097604</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3984801369161488</v>
+        <v>1.172732821581363</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.213183624856427</v>
+        <v>0.6943776401281667</v>
       </c>
     </row>
   </sheetData>
